--- a/contratos/contratos-1-2019.xlsx
+++ b/contratos/contratos-1-2019.xlsx
@@ -1402,7 +1402,7 @@
     <t>LOPEZ RICARDO FABIAN</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OBRELECTRIC S.R.L.</t>
@@ -1579,7 +1579,7 @@
     <t>ALBANESE IGNACIO</t>
   </si>
   <si>
-    <t>ALTAMIRANO, LIS</t>
+    <t>ALTAMIRANO. LIS</t>
   </si>
   <si>
     <t>AMARILLO JONATHAN LUIS</t>
@@ -1633,7 +1633,7 @@
     <t>BONVIN PAMELA ELIZABETH</t>
   </si>
   <si>
-    <t>BRIOZZO, LAURA ESTER</t>
+    <t>BRIOZZO. LAURA ESTER</t>
   </si>
   <si>
     <t>CABRERA FELIX ORLANDO</t>
@@ -1651,10 +1651,10 @@
     <t>CORDOBA NATALIA LUCRECIA</t>
   </si>
   <si>
-    <t>DA SILVA, RONALDO APARECIDO</t>
-  </si>
-  <si>
-    <t>DACUY, JUAN JOSE</t>
+    <t>DA SILVA. RONALDO APARECIDO</t>
+  </si>
+  <si>
+    <t>DACUY. JUAN JOSE</t>
   </si>
   <si>
     <t>DE BRABANDERE MARIA BELEN</t>
@@ -1669,7 +1669,7 @@
     <t>DIAZ IVANA EDITH</t>
   </si>
   <si>
-    <t>DIAZ, MARIA ISABEL</t>
+    <t>DIAZ. MARIA ISABEL</t>
   </si>
   <si>
     <t>DIORIO FERNANDO GASTON</t>
@@ -1690,16 +1690,16 @@
     <t>ERRAMUSPE FERNANDO FRANCISCO</t>
   </si>
   <si>
-    <t>ESTEVEZ, SILVIA MABEL</t>
+    <t>ESTEVEZ. SILVIA MABEL</t>
   </si>
   <si>
     <t>FERNANDEZ MARIA CAROLINA</t>
   </si>
   <si>
-    <t>FERNANDEZ, JUAN ESTEBAN</t>
-  </si>
-  <si>
-    <t>FERRARI, HECTOR</t>
+    <t>FERNANDEZ. JUAN ESTEBAN</t>
+  </si>
+  <si>
+    <t>FERRARI. HECTOR</t>
   </si>
   <si>
     <t>FUCHS LILIANA TERESA</t>
@@ -1753,7 +1753,7 @@
     <t>KUTTEL GERMAN GASTON</t>
   </si>
   <si>
-    <t>LEDESMA, MARIA ELSA</t>
+    <t>LEDESMA. MARIA ELSA</t>
   </si>
   <si>
     <t>LEOPARDO VANESA BEATRIZ</t>
@@ -1768,7 +1768,7 @@
     <t>MAGRI WALTER DARIO</t>
   </si>
   <si>
-    <t>MARTINEZ, CAYETANO JAVIER</t>
+    <t>MARTINEZ. CAYETANO JAVIER</t>
   </si>
   <si>
     <t>MATTIAUDA EDUARDO GERMAN</t>
@@ -1780,13 +1780,13 @@
     <t>MC LOUGHLIN NATALIA</t>
   </si>
   <si>
-    <t>MERIANO, ALCIDES DARIO</t>
+    <t>MERIANO. ALCIDES DARIO</t>
   </si>
   <si>
     <t>MONES RUIZ MATIAS ROBERTO</t>
   </si>
   <si>
-    <t>MONROY, AGUSTIN ALEJANDRO</t>
+    <t>MONROY. AGUSTIN ALEJANDRO</t>
   </si>
   <si>
     <t>NOIR MARIO ALBERTO</t>
@@ -1810,7 +1810,7 @@
     <t>OLIVER NESTOR MARCELO</t>
   </si>
   <si>
-    <t>OLIVER, MARIA GABRIELA</t>
+    <t>OLIVER. MARIA GABRIELA</t>
   </si>
   <si>
     <t>OLIVERA JONATAN FABIAN</t>
@@ -1822,7 +1822,7 @@
     <t>PADOVESE JOSE SIXTO</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PEREYRA VANESA ANDREA</t>
@@ -1834,10 +1834,10 @@
     <t>PITER MARIA FLORENCIA</t>
   </si>
   <si>
-    <t>PRELAT, JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>PRIETO, DAYSI ZORAIDA MARIA</t>
+    <t>PRELAT. JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>PRIETO. DAYSI ZORAIDA MARIA</t>
   </si>
   <si>
     <t>PUETTO GIULIANA PAOLA</t>
@@ -1864,7 +1864,7 @@
     <t>SAMPO LORENZO ANTONIO</t>
   </si>
   <si>
-    <t>SANABRIA, ROBERTO MARCELO</t>
+    <t>SANABRIA. ROBERTO MARCELO</t>
   </si>
   <si>
     <t>SANCHEZ MARIELA FELISA</t>
@@ -1876,7 +1876,7 @@
     <t>SCELZI ALBERTO MARTIN</t>
   </si>
   <si>
-    <t>SILVA, JOSE MANUEL</t>
+    <t>SILVA. JOSE MANUEL</t>
   </si>
   <si>
     <t>SIRIMARCO FEDERICO</t>
@@ -1897,7 +1897,7 @@
     <t>TORRESAN DANIEL JOSE</t>
   </si>
   <si>
-    <t>TROPINI, FERNANDO RICARDO</t>
+    <t>TROPINI. FERNANDO RICARDO</t>
   </si>
   <si>
     <t>VELAZQUEZ JUAN RAMON</t>
@@ -1909,7 +1909,7 @@
     <t>WURST MARIO ERNESTO</t>
   </si>
   <si>
-    <t>YESSI, PABLO FEDERICO</t>
+    <t>YESSI. PABLO FEDERICO</t>
   </si>
   <si>
     <t>ZIEGLER GUILLERMO MAXIMILIANO</t>
@@ -1948,7 +1948,7 @@
     <t>VERNAZ JOSEFINA ELENA</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -2125,7 +2125,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>HUCK JUAN SANTIAGO</t>
@@ -2479,7 +2479,7 @@
     <t>ALBANESE IGNACIO ( SP )</t>
   </si>
   <si>
-    <t>ALTAMIRANO, LIS ( SP )</t>
+    <t>ALTAMIRANO. LIS ( SP )</t>
   </si>
   <si>
     <t>AMARILLO JONATHAN LUIS ( SP )</t>
@@ -2533,7 +2533,7 @@
     <t>BONVIN PAMELA ELIZABETH ( SP )</t>
   </si>
   <si>
-    <t>BRIOZZO, LAURA ESTER ( SP )</t>
+    <t>BRIOZZO. LAURA ESTER ( SP )</t>
   </si>
   <si>
     <t>CABRERA FELIX ORLANDO ( SP )</t>
@@ -2548,10 +2548,10 @@
     <t>CORDOBA NATALIA LUCRECIA ( SP )</t>
   </si>
   <si>
-    <t>DA SILVA, RONALDO APARECIDO ( SP )</t>
-  </si>
-  <si>
-    <t>DACUY, JUAN JOSE ( SP )</t>
+    <t>DA SILVA. RONALDO APARECIDO ( SP )</t>
+  </si>
+  <si>
+    <t>DACUY. JUAN JOSE ( SP )</t>
   </si>
   <si>
     <t>DEBRABANDERE MARIA BELEN ( SP )</t>
@@ -2566,7 +2566,7 @@
     <t>DIAZ IVANA EDITH ( SP )</t>
   </si>
   <si>
-    <t>DIAZ, MARIA ISABEL ( SP )</t>
+    <t>DIAZ. MARIA ISABEL ( SP )</t>
   </si>
   <si>
     <t>DIORIO FERNANDO GASTON ( SP )</t>
@@ -2587,7 +2587,7 @@
     <t>ERRAMUSPE FERNANDO FRANCISCO ( SP )</t>
   </si>
   <si>
-    <t>ESTEVEZ, SILVIA MABEL ( SP )</t>
+    <t>ESTEVEZ. SILVIA MABEL ( SP )</t>
   </si>
   <si>
     <t>FERNANDEZ MARIA CAROLINA ( SP )</t>
@@ -2596,7 +2596,7 @@
     <t>FERNANDEZ JUAN ESTEBAN ( SP )</t>
   </si>
   <si>
-    <t>FERRARI, HECTOR ( SP )</t>
+    <t>FERRARI. HECTOR ( SP )</t>
   </si>
   <si>
     <t>FUCHS LILIANA TERESA ( SP )</t>
@@ -2647,7 +2647,7 @@
     <t>KUTTEL GERMAN GASTON ( SP )</t>
   </si>
   <si>
-    <t>LEDESMA, MARIA ELSA ( SP )</t>
+    <t>LEDESMA. MARIA ELSA ( SP )</t>
   </si>
   <si>
     <t>LEOPARDO VANESA BEATRIZ ( SP )</t>
@@ -2662,7 +2662,7 @@
     <t>MAGRI WALTER DARIO ( SP )</t>
   </si>
   <si>
-    <t>MARTINEZ, CAYETANO JAVIER ( SP )</t>
+    <t>MARTINEZ. CAYETANO JAVIER ( SP )</t>
   </si>
   <si>
     <t>MATTIAUDA EDUARDO GERMAN ( SP )</t>
@@ -2674,7 +2674,7 @@
     <t>MC LOUGHLIN NATALIA ( SP )</t>
   </si>
   <si>
-    <t>MERIANO, ALCIDES DARIO ( SP )</t>
+    <t>MERIANO. ALCIDES DARIO ( SP )</t>
   </si>
   <si>
     <t>MONES RUIZ MATIAS ROBERTO ( SP )</t>
@@ -2689,7 +2689,7 @@
     <t>NUÑEZ JESICA ESTEFANIA ( SP )</t>
   </si>
   <si>
-    <t>NUÑEZ, LUIS ALBERTO ( SP )</t>
+    <t>NUÑEZ. LUIS ALBERTO ( SP )</t>
   </si>
   <si>
     <t>OBREGON MATIAS NICOLAS ( SP )</t>
@@ -2704,7 +2704,7 @@
     <t>OLIVER NESTOR MARCELO ( SP )</t>
   </si>
   <si>
-    <t>OLIVER, MARIA GABRIELA ( SP )</t>
+    <t>OLIVER. MARIA GABRIELA ( SP )</t>
   </si>
   <si>
     <t>OLIVERA JONATAN FABIAN ( SP )</t>
@@ -2716,7 +2716,7 @@
     <t>PADOVESE JOSE SIXTO ( SP )</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO ( SP )</t>
+    <t>PARPAGNOLI. PEDRO RICARDO ( SP )</t>
   </si>
   <si>
     <t>PEREYRA VANESA ANDREA ( SP )</t>
@@ -2728,10 +2728,10 @@
     <t>PITER MARIA FLORENCIA ( SP )</t>
   </si>
   <si>
-    <t>PRELAT, JOSE ANTONIO ( SP )</t>
-  </si>
-  <si>
-    <t>PRIETO, DAYSI ZORAIDA MARIA ( SP )</t>
+    <t>PRELAT. JOSE ANTONIO ( SP )</t>
+  </si>
+  <si>
+    <t>PRIETO. DAYSI ZORAIDA MARIA ( SP )</t>
   </si>
   <si>
     <t>PUETTO GIULIANA PAOLA ( SP )</t>
@@ -2758,7 +2758,7 @@
     <t>SAMPO LORENZO ANTONIO (SP)</t>
   </si>
   <si>
-    <t>SANABRIA, ROBERTO MARCELO ( SP )</t>
+    <t>SANABRIA. ROBERTO MARCELO ( SP )</t>
   </si>
   <si>
     <t>SANCHEZ MARIELA FELISA ( SP )</t>
@@ -2770,7 +2770,7 @@
     <t>SCELZI ALBERTO MARTIN ( SP )</t>
   </si>
   <si>
-    <t>SILVA, JOSE MANUEL ( SP )</t>
+    <t>SILVA. JOSE MANUEL ( SP )</t>
   </si>
   <si>
     <t>SIRIMARCO FEDERICO ( SP )</t>
@@ -2791,7 +2791,7 @@
     <t>TORRESAN DANIEL JOSE ( SP )</t>
   </si>
   <si>
-    <t>TROPINI, FERNANDO RICARDO ( SP )</t>
+    <t>TROPINI. FERNANDO RICARDO ( SP )</t>
   </si>
   <si>
     <t>VELAZQUEZ JUAN RAMON ( SP )</t>
@@ -2803,7 +2803,7 @@
     <t>WURST MARIO ERNESTO ( SP )</t>
   </si>
   <si>
-    <t>YESSI, PABLO FEDERICO ( SP )</t>
+    <t>YESSI. PABLO FEDERICO ( SP )</t>
   </si>
   <si>
     <t>ZIEGLER GUILLERMO MAXIMILIANO ( SP )</t>
@@ -3115,1048 +3115,1048 @@
     <t>10</t>
   </si>
   <si>
-    <t>119.990,00</t>
-  </si>
-  <si>
-    <t>125.000,00</t>
-  </si>
-  <si>
-    <t>200.000,00</t>
-  </si>
-  <si>
-    <t>61.200,00</t>
-  </si>
-  <si>
-    <t>54.350,00</t>
-  </si>
-  <si>
-    <t>332.000,00</t>
-  </si>
-  <si>
-    <t>12.600,00</t>
-  </si>
-  <si>
-    <t>524.000,00</t>
-  </si>
-  <si>
-    <t>400.000,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>1.263.800,00</t>
-  </si>
-  <si>
-    <t>1.204.001,28</t>
-  </si>
-  <si>
-    <t>764.000,00</t>
-  </si>
-  <si>
-    <t>10.080,00</t>
-  </si>
-  <si>
-    <t>13.455,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>52.980,02</t>
-  </si>
-  <si>
-    <t>73.500,00</t>
-  </si>
-  <si>
-    <t>7.740,08</t>
-  </si>
-  <si>
-    <t>599.952,00</t>
-  </si>
-  <si>
-    <t>1.129.726,09</t>
-  </si>
-  <si>
-    <t>946.068,82</t>
-  </si>
-  <si>
-    <t>204.627,05</t>
-  </si>
-  <si>
-    <t>17,00</t>
-  </si>
-  <si>
-    <t>22.780,00</t>
-  </si>
-  <si>
-    <t>22.800,00</t>
-  </si>
-  <si>
-    <t>180.537,84</t>
-  </si>
-  <si>
-    <t>11.520,00</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>116.960,85</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>25.580,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>1.355,40</t>
-  </si>
-  <si>
-    <t>66.266,63</t>
-  </si>
-  <si>
-    <t>37.806,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>28.134,00</t>
-  </si>
-  <si>
-    <t>171.908,07</t>
-  </si>
-  <si>
-    <t>35.400,00</t>
-  </si>
-  <si>
-    <t>119.702,93</t>
-  </si>
-  <si>
-    <t>91.345,00</t>
-  </si>
-  <si>
-    <t>49.550,00</t>
-  </si>
-  <si>
-    <t>1.610,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>52.070,00</t>
-  </si>
-  <si>
-    <t>406,68</t>
-  </si>
-  <si>
-    <t>172.500,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>1.747,68</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>192.137,22</t>
-  </si>
-  <si>
-    <t>22.252,94</t>
-  </si>
-  <si>
-    <t>687,00</t>
-  </si>
-  <si>
-    <t>567.253,00</t>
-  </si>
-  <si>
-    <t>234.871,00</t>
-  </si>
-  <si>
-    <t>6.497,66</t>
-  </si>
-  <si>
-    <t>169,00</t>
-  </si>
-  <si>
-    <t>1.714,96</t>
-  </si>
-  <si>
-    <t>118.550,00</t>
-  </si>
-  <si>
-    <t>1.143,36</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>1.799,00</t>
-  </si>
-  <si>
-    <t>43.693,08</t>
-  </si>
-  <si>
-    <t>2.280,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>56.254,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>29.824,00</t>
-  </si>
-  <si>
-    <t>24.765,82</t>
-  </si>
-  <si>
-    <t>18.104,22</t>
-  </si>
-  <si>
-    <t>46.280,00</t>
-  </si>
-  <si>
-    <t>44.059,46</t>
-  </si>
-  <si>
-    <t>22.923,22</t>
-  </si>
-  <si>
-    <t>6.505,00</t>
-  </si>
-  <si>
-    <t>3.601,87</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>583.988,70</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>4.203,30</t>
-  </si>
-  <si>
-    <t>1.071,74</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>4.301,67</t>
-  </si>
-  <si>
-    <t>59.731,20</t>
-  </si>
-  <si>
-    <t>2.035,00</t>
-  </si>
-  <si>
-    <t>41.086,64</t>
-  </si>
-  <si>
-    <t>11.120,00</t>
-  </si>
-  <si>
-    <t>21.200,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>217.100,00</t>
-  </si>
-  <si>
-    <t>101.300,00</t>
-  </si>
-  <si>
-    <t>33.100,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>9.409,98</t>
-  </si>
-  <si>
-    <t>121.419,36</t>
-  </si>
-  <si>
-    <t>34.150,00</t>
-  </si>
-  <si>
-    <t>990,00</t>
-  </si>
-  <si>
-    <t>5.684,80</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>13.395,00</t>
-  </si>
-  <si>
-    <t>715,00</t>
-  </si>
-  <si>
-    <t>255.216,00</t>
-  </si>
-  <si>
-    <t>21.849,99</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>12.799,98</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>53.006,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>37.130,00</t>
-  </si>
-  <si>
-    <t>48.075,00</t>
-  </si>
-  <si>
-    <t>26.792,14</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>35.350,00</t>
-  </si>
-  <si>
-    <t>190.625,00</t>
-  </si>
-  <si>
-    <t>1.110,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>142.341,63</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>18.336,88</t>
-  </si>
-  <si>
-    <t>264.450,00</t>
-  </si>
-  <si>
-    <t>80.536,48</t>
-  </si>
-  <si>
-    <t>182.549,38</t>
-  </si>
-  <si>
-    <t>79.670,00</t>
-  </si>
-  <si>
-    <t>93.959,00</t>
-  </si>
-  <si>
-    <t>80.536,00</t>
-  </si>
-  <si>
-    <t>766.707,00</t>
-  </si>
-  <si>
-    <t>154.200,74</t>
-  </si>
-  <si>
-    <t>174.495,72</t>
-  </si>
-  <si>
-    <t>57.957,00</t>
-  </si>
-  <si>
-    <t>73.209,00</t>
-  </si>
-  <si>
-    <t>77.515,29</t>
-  </si>
-  <si>
-    <t>93.959,20</t>
-  </si>
-  <si>
-    <t>76.671,00</t>
-  </si>
-  <si>
-    <t>73.208,88</t>
-  </si>
-  <si>
-    <t>161.113,00</t>
-  </si>
-  <si>
-    <t>134.227,48</t>
-  </si>
-  <si>
-    <t>5.354,00</t>
-  </si>
-  <si>
-    <t>127.784,00</t>
-  </si>
-  <si>
-    <t>146.039,43</t>
-  </si>
-  <si>
-    <t>161.072,06</t>
-  </si>
-  <si>
-    <t>364.388,40</t>
-  </si>
-  <si>
-    <t>65.980,00</t>
-  </si>
-  <si>
-    <t>174.496,00</t>
-  </si>
-  <si>
-    <t>644.291,76</t>
-  </si>
-  <si>
-    <t>3.666,60</t>
-  </si>
-  <si>
-    <t>85.669,00</t>
-  </si>
-  <si>
-    <t>8,43</t>
-  </si>
-  <si>
-    <t>76.670,70</t>
-  </si>
-  <si>
-    <t>107.381,96</t>
-  </si>
-  <si>
-    <t>8.428,69</t>
-  </si>
-  <si>
-    <t>64.057,80</t>
-  </si>
-  <si>
-    <t>127.784,54</t>
-  </si>
-  <si>
-    <t>91.319,00</t>
-  </si>
-  <si>
-    <t>107.776,00</t>
-  </si>
-  <si>
-    <t>146.039,00</t>
-  </si>
-  <si>
-    <t>79.668,54</t>
-  </si>
-  <si>
-    <t>85.410,00</t>
-  </si>
-  <si>
-    <t>67.650,00</t>
-  </si>
-  <si>
-    <t>80.536,68</t>
-  </si>
-  <si>
-    <t>139.059,65</t>
-  </si>
-  <si>
-    <t>139.059,48</t>
-  </si>
-  <si>
-    <t>102.249,72</t>
-  </si>
-  <si>
-    <t>154.978,30</t>
-  </si>
-  <si>
-    <t>67.651,00</t>
-  </si>
-  <si>
-    <t>12.400,00</t>
-  </si>
-  <si>
-    <t>64.057,00</t>
-  </si>
-  <si>
-    <t>73.208,90</t>
-  </si>
-  <si>
-    <t>201.341,00</t>
-  </si>
-  <si>
-    <t>90.201,00</t>
-  </si>
-  <si>
-    <t>66.324,00</t>
-  </si>
-  <si>
-    <t>201.341,24</t>
-  </si>
-  <si>
-    <t>188.026,00</t>
-  </si>
-  <si>
-    <t>146.039,47</t>
-  </si>
-  <si>
-    <t>107.398,00</t>
-  </si>
-  <si>
-    <t>58.033,64</t>
-  </si>
-  <si>
-    <t>28.467,48</t>
-  </si>
-  <si>
-    <t>12.195,00</t>
-  </si>
-  <si>
-    <t>460,00</t>
-  </si>
-  <si>
-    <t>732,75</t>
-  </si>
-  <si>
-    <t>767,88</t>
-  </si>
-  <si>
-    <t>41.900,00</t>
-  </si>
-  <si>
-    <t>49,90</t>
-  </si>
-  <si>
-    <t>11.250,00</t>
-  </si>
-  <si>
-    <t>76.300,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>17.700,00</t>
-  </si>
-  <si>
-    <t>11.430,00</t>
-  </si>
-  <si>
-    <t>238,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>14.200,00</t>
-  </si>
-  <si>
-    <t>34.770,00</t>
-  </si>
-  <si>
-    <t>4.240,00</t>
-  </si>
-  <si>
-    <t>495,00</t>
-  </si>
-  <si>
-    <t>23.671,00</t>
-  </si>
-  <si>
-    <t>308,00</t>
-  </si>
-  <si>
-    <t>28.766,00</t>
-  </si>
-  <si>
-    <t>59.721,19</t>
-  </si>
-  <si>
-    <t>1.926,88</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>3.589,74</t>
-  </si>
-  <si>
-    <t>11.711,65</t>
-  </si>
-  <si>
-    <t>5.680,00</t>
-  </si>
-  <si>
-    <t>4.264,40</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>9.025,12</t>
-  </si>
-  <si>
-    <t>3.524,00</t>
-  </si>
-  <si>
-    <t>265,00</t>
-  </si>
-  <si>
-    <t>43.058,00</t>
-  </si>
-  <si>
-    <t>45.950,00</t>
-  </si>
-  <si>
-    <t>12.756,33</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>215,00</t>
-  </si>
-  <si>
-    <t>15.535,00</t>
-  </si>
-  <si>
-    <t>28.900,00</t>
-  </si>
-  <si>
-    <t>11.680,00</t>
-  </si>
-  <si>
-    <t>1.006,72</t>
-  </si>
-  <si>
-    <t>6.890,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>85.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>7.792.200,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>18.688,10</t>
-  </si>
-  <si>
-    <t>3.593,40</t>
-  </si>
-  <si>
-    <t>70.642,00</t>
-  </si>
-  <si>
-    <t>255,00</t>
-  </si>
-  <si>
-    <t>1.258,56</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>197,22</t>
-  </si>
-  <si>
-    <t>27.960,00</t>
-  </si>
-  <si>
-    <t>27.271,00</t>
-  </si>
-  <si>
-    <t>3.219.846,00</t>
-  </si>
-  <si>
-    <t>849.285,00</t>
-  </si>
-  <si>
-    <t>26.730,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>10.000,25</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>43.504,40</t>
-  </si>
-  <si>
-    <t>51.250,00</t>
-  </si>
-  <si>
-    <t>91.730,10</t>
-  </si>
-  <si>
-    <t>34.720,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>44.125,00</t>
-  </si>
-  <si>
-    <t>8.176,09</t>
-  </si>
-  <si>
-    <t>173.700,00</t>
-  </si>
-  <si>
-    <t>7.124,48</t>
-  </si>
-  <si>
-    <t>20.800,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>12.370,00</t>
-  </si>
-  <si>
-    <t>288,60</t>
-  </si>
-  <si>
-    <t>11.820,00</t>
-  </si>
-  <si>
-    <t>2.376,00</t>
-  </si>
-  <si>
-    <t>21.720,00</t>
-  </si>
-  <si>
-    <t>22.557,00</t>
-  </si>
-  <si>
-    <t>3.550,00</t>
-  </si>
-  <si>
-    <t>2.246,96</t>
-  </si>
-  <si>
-    <t>21.684,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>31.195,00</t>
-  </si>
-  <si>
-    <t>9.975,00</t>
-  </si>
-  <si>
-    <t>38,27</t>
-  </si>
-  <si>
-    <t>23.375,13</t>
-  </si>
-  <si>
-    <t>76.826,82</t>
-  </si>
-  <si>
-    <t>20.328,88</t>
-  </si>
-  <si>
-    <t>6.358,86</t>
-  </si>
-  <si>
-    <t>31.020,00</t>
-  </si>
-  <si>
-    <t>13.627,00</t>
-  </si>
-  <si>
-    <t>108,43</t>
-  </si>
-  <si>
-    <t>30.791,13</t>
-  </si>
-  <si>
-    <t>138,02</t>
-  </si>
-  <si>
-    <t>297,32</t>
-  </si>
-  <si>
-    <t>192.658,57</t>
-  </si>
-  <si>
-    <t>6.203,60</t>
-  </si>
-  <si>
-    <t>235.035,00</t>
-  </si>
-  <si>
-    <t>35.616,38</t>
-  </si>
-  <si>
-    <t>11.985,00</t>
-  </si>
-  <si>
-    <t>10.704,00</t>
-  </si>
-  <si>
-    <t>21.371,21</t>
-  </si>
-  <si>
-    <t>7.873,80</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>39.600,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>430.050,00</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>19.328,96</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>5.870,00</t>
-  </si>
-  <si>
-    <t>559.000,00</t>
-  </si>
-  <si>
-    <t>30.301.886,81</t>
-  </si>
-  <si>
-    <t>317.800,00</t>
-  </si>
-  <si>
-    <t>7.950.361,20</t>
-  </si>
-  <si>
-    <t>206.500,00</t>
-  </si>
-  <si>
-    <t>3.565.872,07</t>
-  </si>
-  <si>
-    <t>247.100,00</t>
-  </si>
-  <si>
-    <t>227.500,00</t>
-  </si>
-  <si>
-    <t>211.000,00</t>
-  </si>
-  <si>
-    <t>377.500,00</t>
-  </si>
-  <si>
-    <t>305.500,00</t>
-  </si>
-  <si>
-    <t>399.000,00</t>
-  </si>
-  <si>
-    <t>268.900,00</t>
-  </si>
-  <si>
-    <t>206.900,00</t>
-  </si>
-  <si>
-    <t>413.000,00</t>
-  </si>
-  <si>
-    <t>239.700,00</t>
-  </si>
-  <si>
-    <t>390.700,00</t>
-  </si>
-  <si>
-    <t>738.100,00</t>
-  </si>
-  <si>
-    <t>601.700,00</t>
-  </si>
-  <si>
-    <t>209.670,00</t>
-  </si>
-  <si>
-    <t>5.499.217,27</t>
-  </si>
-  <si>
-    <t>1.281.000,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>27.950,00</t>
-  </si>
-  <si>
-    <t>4.014.819,54</t>
-  </si>
-  <si>
-    <t>184.800,00</t>
-  </si>
-  <si>
-    <t>175.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>9.290,00</t>
-  </si>
-  <si>
-    <t>2.398.000,00</t>
-  </si>
-  <si>
-    <t>25.500,00</t>
-  </si>
-  <si>
-    <t>59.200,00</t>
-  </si>
-  <si>
-    <t>318.268,00</t>
-  </si>
-  <si>
-    <t>273.000,00</t>
-  </si>
-  <si>
-    <t>810.000,00</t>
-  </si>
-  <si>
-    <t>1.443,00</t>
-  </si>
-  <si>
-    <t>1.413,00</t>
-  </si>
-  <si>
-    <t>15.985,00</t>
+    <t>119990.00</t>
+  </si>
+  <si>
+    <t>125000.00</t>
+  </si>
+  <si>
+    <t>200000.00</t>
+  </si>
+  <si>
+    <t>61200.00</t>
+  </si>
+  <si>
+    <t>54350.00</t>
+  </si>
+  <si>
+    <t>332000.00</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>524000.00</t>
+  </si>
+  <si>
+    <t>400000.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>1263800.00</t>
+  </si>
+  <si>
+    <t>1204001.28</t>
+  </si>
+  <si>
+    <t>764000.00</t>
+  </si>
+  <si>
+    <t>10080.00</t>
+  </si>
+  <si>
+    <t>13455.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>52980.02</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>7740.08</t>
+  </si>
+  <si>
+    <t>599952.00</t>
+  </si>
+  <si>
+    <t>1129726.09</t>
+  </si>
+  <si>
+    <t>946068.82</t>
+  </si>
+  <si>
+    <t>204627.05</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>22780.00</t>
+  </si>
+  <si>
+    <t>22800.00</t>
+  </si>
+  <si>
+    <t>180537.84</t>
+  </si>
+  <si>
+    <t>11520.00</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>116960.85</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>25580.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>1355.40</t>
+  </si>
+  <si>
+    <t>66266.63</t>
+  </si>
+  <si>
+    <t>37806.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>28134.00</t>
+  </si>
+  <si>
+    <t>171908.07</t>
+  </si>
+  <si>
+    <t>35400.00</t>
+  </si>
+  <si>
+    <t>119702.93</t>
+  </si>
+  <si>
+    <t>91345.00</t>
+  </si>
+  <si>
+    <t>49550.00</t>
+  </si>
+  <si>
+    <t>1610.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>52070.00</t>
+  </si>
+  <si>
+    <t>406.68</t>
+  </si>
+  <si>
+    <t>172500.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>1747.68</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>192137.22</t>
+  </si>
+  <si>
+    <t>22252.94</t>
+  </si>
+  <si>
+    <t>687.00</t>
+  </si>
+  <si>
+    <t>567253.00</t>
+  </si>
+  <si>
+    <t>234871.00</t>
+  </si>
+  <si>
+    <t>6497.66</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>1714.96</t>
+  </si>
+  <si>
+    <t>118550.00</t>
+  </si>
+  <si>
+    <t>1143.36</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>1799.00</t>
+  </si>
+  <si>
+    <t>43693.08</t>
+  </si>
+  <si>
+    <t>2280.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>56254.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>29824.00</t>
+  </si>
+  <si>
+    <t>24765.82</t>
+  </si>
+  <si>
+    <t>18104.22</t>
+  </si>
+  <si>
+    <t>46280.00</t>
+  </si>
+  <si>
+    <t>44059.46</t>
+  </si>
+  <si>
+    <t>22923.22</t>
+  </si>
+  <si>
+    <t>6505.00</t>
+  </si>
+  <si>
+    <t>3601.87</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>583988.70</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>4203.30</t>
+  </si>
+  <si>
+    <t>1071.74</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>4301.67</t>
+  </si>
+  <si>
+    <t>59731.20</t>
+  </si>
+  <si>
+    <t>2035.00</t>
+  </si>
+  <si>
+    <t>41086.64</t>
+  </si>
+  <si>
+    <t>11120.00</t>
+  </si>
+  <si>
+    <t>21200.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>217100.00</t>
+  </si>
+  <si>
+    <t>101300.00</t>
+  </si>
+  <si>
+    <t>33100.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>9409.98</t>
+  </si>
+  <si>
+    <t>121419.36</t>
+  </si>
+  <si>
+    <t>34150.00</t>
+  </si>
+  <si>
+    <t>990.00</t>
+  </si>
+  <si>
+    <t>5684.80</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>13395.00</t>
+  </si>
+  <si>
+    <t>715.00</t>
+  </si>
+  <si>
+    <t>255216.00</t>
+  </si>
+  <si>
+    <t>21849.99</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>12799.98</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>53006.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>37130.00</t>
+  </si>
+  <si>
+    <t>48075.00</t>
+  </si>
+  <si>
+    <t>26792.14</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>35350.00</t>
+  </si>
+  <si>
+    <t>190625.00</t>
+  </si>
+  <si>
+    <t>1110.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>142341.63</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>18336.88</t>
+  </si>
+  <si>
+    <t>264450.00</t>
+  </si>
+  <si>
+    <t>80536.48</t>
+  </si>
+  <si>
+    <t>182549.38</t>
+  </si>
+  <si>
+    <t>79670.00</t>
+  </si>
+  <si>
+    <t>93959.00</t>
+  </si>
+  <si>
+    <t>80536.00</t>
+  </si>
+  <si>
+    <t>766707.00</t>
+  </si>
+  <si>
+    <t>154200.74</t>
+  </si>
+  <si>
+    <t>174495.72</t>
+  </si>
+  <si>
+    <t>57957.00</t>
+  </si>
+  <si>
+    <t>73209.00</t>
+  </si>
+  <si>
+    <t>77515.29</t>
+  </si>
+  <si>
+    <t>93959.20</t>
+  </si>
+  <si>
+    <t>76671.00</t>
+  </si>
+  <si>
+    <t>73208.88</t>
+  </si>
+  <si>
+    <t>161113.00</t>
+  </si>
+  <si>
+    <t>134227.48</t>
+  </si>
+  <si>
+    <t>5354.00</t>
+  </si>
+  <si>
+    <t>127784.00</t>
+  </si>
+  <si>
+    <t>146039.43</t>
+  </si>
+  <si>
+    <t>161072.06</t>
+  </si>
+  <si>
+    <t>364388.40</t>
+  </si>
+  <si>
+    <t>65980.00</t>
+  </si>
+  <si>
+    <t>174496.00</t>
+  </si>
+  <si>
+    <t>644291.76</t>
+  </si>
+  <si>
+    <t>3666.60</t>
+  </si>
+  <si>
+    <t>85669.00</t>
+  </si>
+  <si>
+    <t>8.43</t>
+  </si>
+  <si>
+    <t>76670.70</t>
+  </si>
+  <si>
+    <t>107381.96</t>
+  </si>
+  <si>
+    <t>8428.69</t>
+  </si>
+  <si>
+    <t>64057.80</t>
+  </si>
+  <si>
+    <t>127784.54</t>
+  </si>
+  <si>
+    <t>91319.00</t>
+  </si>
+  <si>
+    <t>107776.00</t>
+  </si>
+  <si>
+    <t>146039.00</t>
+  </si>
+  <si>
+    <t>79668.54</t>
+  </si>
+  <si>
+    <t>85410.00</t>
+  </si>
+  <si>
+    <t>67650.00</t>
+  </si>
+  <si>
+    <t>80536.68</t>
+  </si>
+  <si>
+    <t>139059.65</t>
+  </si>
+  <si>
+    <t>139059.48</t>
+  </si>
+  <si>
+    <t>102249.72</t>
+  </si>
+  <si>
+    <t>154978.30</t>
+  </si>
+  <si>
+    <t>67651.00</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>64057.00</t>
+  </si>
+  <si>
+    <t>73208.90</t>
+  </si>
+  <si>
+    <t>201341.00</t>
+  </si>
+  <si>
+    <t>90201.00</t>
+  </si>
+  <si>
+    <t>66324.00</t>
+  </si>
+  <si>
+    <t>201341.24</t>
+  </si>
+  <si>
+    <t>188026.00</t>
+  </si>
+  <si>
+    <t>146039.47</t>
+  </si>
+  <si>
+    <t>107398.00</t>
+  </si>
+  <si>
+    <t>58033.64</t>
+  </si>
+  <si>
+    <t>28467.48</t>
+  </si>
+  <si>
+    <t>12195.00</t>
+  </si>
+  <si>
+    <t>460.00</t>
+  </si>
+  <si>
+    <t>732.75</t>
+  </si>
+  <si>
+    <t>767.88</t>
+  </si>
+  <si>
+    <t>41900.00</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>11250.00</t>
+  </si>
+  <si>
+    <t>76300.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>17700.00</t>
+  </si>
+  <si>
+    <t>11430.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>14200.00</t>
+  </si>
+  <si>
+    <t>34770.00</t>
+  </si>
+  <si>
+    <t>4240.00</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>23671.00</t>
+  </si>
+  <si>
+    <t>308.00</t>
+  </si>
+  <si>
+    <t>28766.00</t>
+  </si>
+  <si>
+    <t>59721.19</t>
+  </si>
+  <si>
+    <t>1926.88</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>3589.74</t>
+  </si>
+  <si>
+    <t>11711.65</t>
+  </si>
+  <si>
+    <t>5680.00</t>
+  </si>
+  <si>
+    <t>4264.40</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>9025.12</t>
+  </si>
+  <si>
+    <t>3524.00</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>43058.00</t>
+  </si>
+  <si>
+    <t>45950.00</t>
+  </si>
+  <si>
+    <t>12756.33</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>15535.00</t>
+  </si>
+  <si>
+    <t>28900.00</t>
+  </si>
+  <si>
+    <t>11680.00</t>
+  </si>
+  <si>
+    <t>1006.72</t>
+  </si>
+  <si>
+    <t>6890.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>85000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>7792200.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>18688.10</t>
+  </si>
+  <si>
+    <t>3593.40</t>
+  </si>
+  <si>
+    <t>70642.00</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>1258.56</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>197.22</t>
+  </si>
+  <si>
+    <t>27960.00</t>
+  </si>
+  <si>
+    <t>27271.00</t>
+  </si>
+  <si>
+    <t>3219846.00</t>
+  </si>
+  <si>
+    <t>849285.00</t>
+  </si>
+  <si>
+    <t>26730.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>10000.25</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>43504.40</t>
+  </si>
+  <si>
+    <t>51250.00</t>
+  </si>
+  <si>
+    <t>91730.10</t>
+  </si>
+  <si>
+    <t>34720.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>44125.00</t>
+  </si>
+  <si>
+    <t>8176.09</t>
+  </si>
+  <si>
+    <t>173700.00</t>
+  </si>
+  <si>
+    <t>7124.48</t>
+  </si>
+  <si>
+    <t>20800.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>12370.00</t>
+  </si>
+  <si>
+    <t>288.60</t>
+  </si>
+  <si>
+    <t>11820.00</t>
+  </si>
+  <si>
+    <t>2376.00</t>
+  </si>
+  <si>
+    <t>21720.00</t>
+  </si>
+  <si>
+    <t>22557.00</t>
+  </si>
+  <si>
+    <t>3550.00</t>
+  </si>
+  <si>
+    <t>2246.96</t>
+  </si>
+  <si>
+    <t>21684.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>31195.00</t>
+  </si>
+  <si>
+    <t>9975.00</t>
+  </si>
+  <si>
+    <t>38.27</t>
+  </si>
+  <si>
+    <t>23375.13</t>
+  </si>
+  <si>
+    <t>76826.82</t>
+  </si>
+  <si>
+    <t>20328.88</t>
+  </si>
+  <si>
+    <t>6358.86</t>
+  </si>
+  <si>
+    <t>31020.00</t>
+  </si>
+  <si>
+    <t>13627.00</t>
+  </si>
+  <si>
+    <t>108.43</t>
+  </si>
+  <si>
+    <t>30791.13</t>
+  </si>
+  <si>
+    <t>138.02</t>
+  </si>
+  <si>
+    <t>297.32</t>
+  </si>
+  <si>
+    <t>192658.57</t>
+  </si>
+  <si>
+    <t>6203.60</t>
+  </si>
+  <si>
+    <t>235035.00</t>
+  </si>
+  <si>
+    <t>35616.38</t>
+  </si>
+  <si>
+    <t>11985.00</t>
+  </si>
+  <si>
+    <t>10704.00</t>
+  </si>
+  <si>
+    <t>21371.21</t>
+  </si>
+  <si>
+    <t>7873.80</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>39600.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>430050.00</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>19328.96</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>5870.00</t>
+  </si>
+  <si>
+    <t>559000.00</t>
+  </si>
+  <si>
+    <t>30301886.81</t>
+  </si>
+  <si>
+    <t>317800.00</t>
+  </si>
+  <si>
+    <t>7950361.20</t>
+  </si>
+  <si>
+    <t>206500.00</t>
+  </si>
+  <si>
+    <t>3565872.07</t>
+  </si>
+  <si>
+    <t>247100.00</t>
+  </si>
+  <si>
+    <t>227500.00</t>
+  </si>
+  <si>
+    <t>211000.00</t>
+  </si>
+  <si>
+    <t>377500.00</t>
+  </si>
+  <si>
+    <t>305500.00</t>
+  </si>
+  <si>
+    <t>399000.00</t>
+  </si>
+  <si>
+    <t>268900.00</t>
+  </si>
+  <si>
+    <t>206900.00</t>
+  </si>
+  <si>
+    <t>413000.00</t>
+  </si>
+  <si>
+    <t>239700.00</t>
+  </si>
+  <si>
+    <t>390700.00</t>
+  </si>
+  <si>
+    <t>738100.00</t>
+  </si>
+  <si>
+    <t>601700.00</t>
+  </si>
+  <si>
+    <t>209670.00</t>
+  </si>
+  <si>
+    <t>5499217.27</t>
+  </si>
+  <si>
+    <t>1281000.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>27950.00</t>
+  </si>
+  <si>
+    <t>4014819.54</t>
+  </si>
+  <si>
+    <t>184800.00</t>
+  </si>
+  <si>
+    <t>175000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>9290.00</t>
+  </si>
+  <si>
+    <t>2398000.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>59200.00</t>
+  </si>
+  <si>
+    <t>318268.00</t>
+  </si>
+  <si>
+    <t>273000.00</t>
+  </si>
+  <si>
+    <t>810000.00</t>
+  </si>
+  <si>
+    <t>1443.00</t>
+  </si>
+  <si>
+    <t>1413.00</t>
+  </si>
+  <si>
+    <t>15985.00</t>
   </si>
 </sst>
 </file>
